--- a/RPS  PBO.xlsx
+++ b/RPS  PBO.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Pak Fai\RPS1\RPS-KA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Praktikum" sheetId="1" r:id="rId1"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="110">
   <si>
     <t>KEMENTRIAN RISET, TEKNOLOGI DAN PENDIDIKAN TINGGI</t>
   </si>
@@ -68,12 +73,6 @@
   </si>
   <si>
     <t>I. Deskripsi Mata Kuliah</t>
-  </si>
-  <si>
-    <t>: Dinna Yunika Hardiyanti, M.T.</t>
-  </si>
-  <si>
-    <t>: I</t>
   </si>
   <si>
     <r>
@@ -351,9 +350,6 @@
     <t>Mahasiswa dapat membuat website dengan DHTML</t>
   </si>
   <si>
-    <t>: Praktikum Disain Web</t>
-  </si>
-  <si>
     <t>1 JP</t>
   </si>
   <si>
@@ -379,15 +375,6 @@
   </si>
   <si>
     <t>NIP. 197910202010121003</t>
-  </si>
-  <si>
-    <t>Dinna Yunika Hardiyanti, M.T.</t>
-  </si>
-  <si>
-    <t>NIPUS. 198806282015012201</t>
-  </si>
-  <si>
-    <t>: Disain Web</t>
   </si>
   <si>
     <r>
@@ -425,13 +412,28 @@
     <t>11 - 12</t>
   </si>
   <si>
-    <t>: Dinna Yunika Hardiyanti, M.T. , Dedy Kurniawan</t>
+    <t>: Sarifah Putri Raflesia, M.T. , Dinda Lestarini, M.T.</t>
+  </si>
+  <si>
+    <t>: II</t>
+  </si>
+  <si>
+    <t>: Pemrograman Berorientasi Objek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIPUS. </t>
+  </si>
+  <si>
+    <t>: Praktikum Pemrograman Berorientasi Objek</t>
+  </si>
+  <si>
+    <t>Sarifah Putri Raflesia, M.T.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -597,27 +599,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -636,10 +617,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1012,7 +1014,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1022,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection sqref="A1:XFD58"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,95 +1041,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
     </row>
     <row r="7" spans="1:12" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
@@ -1154,7 +1156,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -1164,7 +1166,7 @@
         <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -1174,7 +1176,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -1200,25 +1202,25 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
+      <c r="B17" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1231,20 +1233,20 @@
     </row>
     <row r="21" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
+      <c r="B21" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1257,33 +1259,33 @@
     </row>
     <row r="23" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
+      <c r="B23" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
+      <c r="B24" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1296,460 +1298,460 @@
     </row>
     <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+    </row>
+    <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-    </row>
-    <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
+      <c r="B28" s="30"/>
+      <c r="C28" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="6" t="s">
+      <c r="E28" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="F28" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="G28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="H28" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="I28" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H28" s="6" t="s">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="B29" s="31"/>
+      <c r="C29" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
+      <c r="D29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="7" t="s">
+      <c r="E29" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="H29" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="I29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H29" s="7" t="s">
+    </row>
+    <row r="30" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A30" s="32">
+        <v>1</v>
+      </c>
+      <c r="B30" s="32"/>
+      <c r="C30" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="I29" s="8" t="s">
+      <c r="D30" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A30" s="21">
-        <v>1</v>
-      </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="10" t="s">
+      <c r="F30" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A31" s="32">
+        <v>2</v>
+      </c>
+      <c r="B31" s="32"/>
+      <c r="C31" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="10" t="s">
+      <c r="F31" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A32" s="32">
+        <v>3</v>
+      </c>
+      <c r="B32" s="32"/>
+      <c r="C32" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H30" s="10" t="s">
+      <c r="F32" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I30" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A31" s="21">
-        <v>2</v>
-      </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="10" t="s">
+      <c r="H32" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A33" s="32">
+        <v>4</v>
+      </c>
+      <c r="B33" s="32"/>
+      <c r="C33" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="G33" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="32">
+        <v>5</v>
+      </c>
+      <c r="B34" s="32"/>
+      <c r="C34" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A32" s="21">
-        <v>3</v>
-      </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A33" s="21">
-        <v>4</v>
-      </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="I33" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="21">
-        <v>5</v>
-      </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="10" t="s">
+      <c r="G34" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="10" t="s">
+      <c r="H34" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G34" s="10" t="s">
+      <c r="I34" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="32">
+        <v>6</v>
+      </c>
+      <c r="B35" s="32"/>
+      <c r="C35" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H34" s="10" t="s">
+      <c r="D35" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="I34" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="21">
-        <v>6</v>
-      </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="10" t="s">
+      <c r="F35" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E35" s="10" t="s">
+      <c r="H35" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>65</v>
-      </c>
       <c r="I35" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="11" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A36" s="21">
+      <c r="A36" s="32">
         <v>7</v>
       </c>
-      <c r="B36" s="21"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A37" s="32">
+        <v>8</v>
+      </c>
+      <c r="B37" s="32"/>
+      <c r="C37" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H37" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I36" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A37" s="21">
-        <v>8</v>
-      </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="10" t="s">
+      <c r="I37" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A38" s="32">
+        <v>9</v>
+      </c>
+      <c r="B38" s="32"/>
+      <c r="C38" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A39" s="32">
+        <v>10</v>
+      </c>
+      <c r="B39" s="32"/>
+      <c r="C39" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D39" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E37" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G37" s="10" t="s">
+      <c r="F39" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H39" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="H37" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A38" s="21">
-        <v>9</v>
-      </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H38" s="10" t="s">
+      <c r="I39" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A40" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" s="32"/>
+      <c r="C40" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="I38" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A39" s="21">
-        <v>10</v>
-      </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="I39" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="10" t="s">
+      <c r="F40" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D40" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E40" s="10" t="s">
+      <c r="H40" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F40" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G40" s="10" t="s">
+      <c r="I40" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A41" s="32">
+        <v>13</v>
+      </c>
+      <c r="B41" s="32"/>
+      <c r="C41" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H40" s="10" t="s">
+      <c r="D41" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E41" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="I40" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A41" s="21">
-        <v>13</v>
-      </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="10" t="s">
+      <c r="F41" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G41" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="H41" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I41" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A42" s="32">
+        <v>14</v>
+      </c>
+      <c r="B42" s="32"/>
+      <c r="C42" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A43" s="32">
+        <v>15</v>
+      </c>
+      <c r="B43" s="32"/>
+      <c r="C43" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G43" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="H43" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F41" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="I41" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A42" s="21">
-        <v>14</v>
-      </c>
-      <c r="B42" s="21"/>
-      <c r="C42" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E42" s="10" t="s">
+      <c r="I43" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="F42" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="I42" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A43" s="21">
-        <v>15</v>
-      </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="I43" s="15" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="21">
+      <c r="A44" s="32">
         <v>16</v>
       </c>
-      <c r="B44" s="21"/>
+      <c r="B44" s="32"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
       <c r="I44" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -1774,7 +1776,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -1786,7 +1788,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -1798,7 +1800,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -1821,13 +1823,13 @@
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="16"/>
@@ -1838,7 +1840,7 @@
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -1892,13 +1894,13 @@
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="16"/>
@@ -1909,13 +1911,13 @@
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="16"/>
@@ -1924,6 +1926,27 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="A1:I1"/>
@@ -1932,27 +1955,6 @@
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A6:I6"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1964,8 +1966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1981,95 +1983,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
     </row>
     <row r="7" spans="1:12" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
@@ -2096,7 +2098,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -2106,7 +2108,7 @@
         <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -2116,7 +2118,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -2142,25 +2144,25 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
+      <c r="B17" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2173,20 +2175,20 @@
     </row>
     <row r="21" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
+      <c r="B21" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2199,33 +2201,33 @@
     </row>
     <row r="23" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
+      <c r="B23" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
+      <c r="B24" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2238,460 +2240,460 @@
     </row>
     <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+    </row>
+    <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-    </row>
-    <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
+      <c r="B28" s="30"/>
+      <c r="C28" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="13" t="s">
+      <c r="E28" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="F28" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="G28" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="H28" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="I28" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H28" s="13" t="s">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="I28" s="13" t="s">
+      <c r="B29" s="31"/>
+      <c r="C29" s="12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
+      <c r="D29" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="12" t="s">
+      <c r="E29" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="F29" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="G29" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="H29" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="I29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H29" s="12" t="s">
+    </row>
+    <row r="30" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A30" s="34">
+        <v>1</v>
+      </c>
+      <c r="B30" s="34"/>
+      <c r="C30" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="I29" s="8" t="s">
+      <c r="D30" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A30" s="35">
-        <v>1</v>
-      </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="10" t="s">
+      <c r="F30" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A31" s="34">
+        <v>2</v>
+      </c>
+      <c r="B31" s="34"/>
+      <c r="C31" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="10" t="s">
+      <c r="F31" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A32" s="34">
+        <v>3</v>
+      </c>
+      <c r="B32" s="34"/>
+      <c r="C32" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H30" s="10" t="s">
+      <c r="F32" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I30" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A31" s="35">
-        <v>2</v>
-      </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="10" t="s">
+      <c r="H32" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A33" s="34">
+        <v>4</v>
+      </c>
+      <c r="B33" s="34"/>
+      <c r="C33" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="G33" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="34">
+        <v>5</v>
+      </c>
+      <c r="B34" s="34"/>
+      <c r="C34" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A32" s="35">
-        <v>3</v>
-      </c>
-      <c r="B32" s="35"/>
-      <c r="C32" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A33" s="35">
-        <v>4</v>
-      </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="I33" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="35">
-        <v>5</v>
-      </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="10" t="s">
+      <c r="G34" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="10" t="s">
+      <c r="H34" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G34" s="10" t="s">
+      <c r="I34" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="34">
+        <v>6</v>
+      </c>
+      <c r="B35" s="34"/>
+      <c r="C35" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H34" s="10" t="s">
+      <c r="D35" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="I34" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="35">
-        <v>6</v>
-      </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="10" t="s">
+      <c r="F35" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E35" s="10" t="s">
+      <c r="H35" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>65</v>
-      </c>
       <c r="I35" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="11" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A36" s="35">
+      <c r="A36" s="34">
         <v>7</v>
       </c>
-      <c r="B36" s="35"/>
+      <c r="B36" s="34"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A37" s="34">
+        <v>8</v>
+      </c>
+      <c r="B37" s="34"/>
+      <c r="C37" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H37" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I36" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A37" s="35">
-        <v>8</v>
-      </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="10" t="s">
+      <c r="I37" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A38" s="34">
+        <v>9</v>
+      </c>
+      <c r="B38" s="34"/>
+      <c r="C38" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A39" s="34">
+        <v>10</v>
+      </c>
+      <c r="B39" s="34"/>
+      <c r="C39" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D39" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E37" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G37" s="10" t="s">
+      <c r="F39" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H39" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="H37" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A38" s="35">
-        <v>9</v>
-      </c>
-      <c r="B38" s="35"/>
-      <c r="C38" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H38" s="10" t="s">
+      <c r="I39" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A40" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" s="34"/>
+      <c r="C40" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="I38" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A39" s="35">
-        <v>10</v>
-      </c>
-      <c r="B39" s="35"/>
-      <c r="C39" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="I39" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A40" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="10" t="s">
+      <c r="F40" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D40" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E40" s="10" t="s">
+      <c r="H40" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F40" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G40" s="10" t="s">
+      <c r="I40" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A41" s="34">
+        <v>13</v>
+      </c>
+      <c r="B41" s="34"/>
+      <c r="C41" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H40" s="10" t="s">
+      <c r="D41" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E41" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="I40" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A41" s="35">
-        <v>13</v>
-      </c>
-      <c r="B41" s="35"/>
-      <c r="C41" s="10" t="s">
+      <c r="F41" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G41" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="H41" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I41" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A42" s="34">
+        <v>14</v>
+      </c>
+      <c r="B42" s="34"/>
+      <c r="C42" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A43" s="34">
+        <v>15</v>
+      </c>
+      <c r="B43" s="34"/>
+      <c r="C43" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G43" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="H43" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F41" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="I41" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A42" s="35">
-        <v>14</v>
-      </c>
-      <c r="B42" s="35"/>
-      <c r="C42" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E42" s="10" t="s">
+      <c r="I43" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="F42" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="I42" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A43" s="35">
-        <v>15</v>
-      </c>
-      <c r="B43" s="35"/>
-      <c r="C43" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="I43" s="15" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="35">
+      <c r="A44" s="34">
         <v>16</v>
       </c>
-      <c r="B44" s="35"/>
+      <c r="B44" s="34"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
       <c r="I44" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2716,7 +2718,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -2728,7 +2730,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -2740,7 +2742,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -2763,13 +2765,13 @@
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="16"/>
@@ -2780,7 +2782,7 @@
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -2834,13 +2836,13 @@
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="16"/>
@@ -2851,13 +2853,13 @@
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="16"/>
@@ -2866,6 +2868,23 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
     <mergeCell ref="B26:I26"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
@@ -2878,23 +2897,6 @@
     <mergeCell ref="B21:I21"/>
     <mergeCell ref="B23:I23"/>
     <mergeCell ref="B24:I24"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/RPS  PBO.xlsx
+++ b/RPS  PBO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Pak Fai\RPS1\RPS-KA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RPS\RPS-KA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EEF4C3-1EF9-435A-9DC3-AD7A2C9F5081}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Praktikum" sheetId="1" r:id="rId1"/>
@@ -433,7 +434,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -599,6 +600,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -617,31 +639,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -678,7 +679,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -727,7 +734,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1021,10 +1034,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
@@ -1041,95 +1054,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
     </row>
     <row r="7" spans="1:12" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
@@ -1202,16 +1215,16 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -1233,16 +1246,16 @@
     </row>
     <row r="21" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1259,29 +1272,29 @@
     </row>
     <row r="23" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -1298,22 +1311,22 @@
     </row>
     <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
     </row>
     <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="30"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="6" t="s">
         <v>24</v>
       </c>
@@ -1337,10 +1350,10 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="31"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="7" t="s">
         <v>32</v>
       </c>
@@ -1364,10 +1377,10 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A30" s="32">
+      <c r="A30" s="21">
         <v>1</v>
       </c>
-      <c r="B30" s="32"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="10" t="s">
         <v>39</v>
       </c>
@@ -1391,10 +1404,10 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A31" s="32">
+      <c r="A31" s="21">
         <v>2</v>
       </c>
-      <c r="B31" s="32"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="10" t="s">
         <v>43</v>
       </c>
@@ -1418,10 +1431,10 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A32" s="32">
+      <c r="A32" s="21">
         <v>3</v>
       </c>
-      <c r="B32" s="32"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="10" t="s">
         <v>44</v>
       </c>
@@ -1445,10 +1458,10 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A33" s="32">
+      <c r="A33" s="21">
         <v>4</v>
       </c>
-      <c r="B33" s="32"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="10" t="s">
         <v>52</v>
       </c>
@@ -1472,10 +1485,10 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="32">
+      <c r="A34" s="21">
         <v>5</v>
       </c>
-      <c r="B34" s="32"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="10" t="s">
         <v>56</v>
       </c>
@@ -1499,10 +1512,10 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="32">
+      <c r="A35" s="21">
         <v>6</v>
       </c>
-      <c r="B35" s="32"/>
+      <c r="B35" s="21"/>
       <c r="C35" s="10" t="s">
         <v>60</v>
       </c>
@@ -1526,10 +1539,10 @@
       </c>
     </row>
     <row r="36" spans="1:9" s="11" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A36" s="32">
+      <c r="A36" s="21">
         <v>7</v>
       </c>
-      <c r="B36" s="32"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14" t="s">
@@ -1547,10 +1560,10 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A37" s="32">
+      <c r="A37" s="21">
         <v>8</v>
       </c>
-      <c r="B37" s="32"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="10" t="s">
         <v>67</v>
       </c>
@@ -1574,10 +1587,10 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A38" s="32">
+      <c r="A38" s="21">
         <v>9</v>
       </c>
-      <c r="B38" s="32"/>
+      <c r="B38" s="21"/>
       <c r="C38" s="10" t="s">
         <v>70</v>
       </c>
@@ -1601,10 +1614,10 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A39" s="32">
+      <c r="A39" s="21">
         <v>10</v>
       </c>
-      <c r="B39" s="32"/>
+      <c r="B39" s="21"/>
       <c r="C39" s="10" t="s">
         <v>69</v>
       </c>
@@ -1628,10 +1641,10 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="32"/>
+      <c r="B40" s="21"/>
       <c r="C40" s="10" t="s">
         <v>79</v>
       </c>
@@ -1655,10 +1668,10 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A41" s="32">
+      <c r="A41" s="21">
         <v>13</v>
       </c>
-      <c r="B41" s="32"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="10" t="s">
         <v>83</v>
       </c>
@@ -1682,10 +1695,10 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A42" s="32">
+      <c r="A42" s="21">
         <v>14</v>
       </c>
-      <c r="B42" s="32"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="10" t="s">
         <v>87</v>
       </c>
@@ -1709,10 +1722,10 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A43" s="32">
+      <c r="A43" s="21">
         <v>15</v>
       </c>
-      <c r="B43" s="32"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="10" t="s">
         <v>83</v>
       </c>
@@ -1736,10 +1749,10 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="32">
+      <c r="A44" s="21">
         <v>16</v>
       </c>
-      <c r="B44" s="32"/>
+      <c r="B44" s="21"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10" t="s">
@@ -1926,27 +1939,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="A1:I1"/>
@@ -1955,6 +1947,27 @@
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A6:I6"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1963,7 +1976,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView topLeftCell="A44" workbookViewId="0">
@@ -1983,95 +1996,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
     </row>
     <row r="7" spans="1:12" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
@@ -2144,16 +2157,16 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -2175,16 +2188,16 @@
     </row>
     <row r="21" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -2201,29 +2214,29 @@
     </row>
     <row r="23" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -2240,22 +2253,22 @@
     </row>
     <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
     </row>
     <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="30"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="13" t="s">
         <v>24</v>
       </c>
@@ -2279,10 +2292,10 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="31"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="12" t="s">
         <v>32</v>
       </c>
@@ -2306,10 +2319,10 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A30" s="34">
+      <c r="A30" s="35">
         <v>1</v>
       </c>
-      <c r="B30" s="34"/>
+      <c r="B30" s="35"/>
       <c r="C30" s="10" t="s">
         <v>39</v>
       </c>
@@ -2333,10 +2346,10 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A31" s="34">
+      <c r="A31" s="35">
         <v>2</v>
       </c>
-      <c r="B31" s="34"/>
+      <c r="B31" s="35"/>
       <c r="C31" s="10" t="s">
         <v>43</v>
       </c>
@@ -2360,10 +2373,10 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A32" s="34">
+      <c r="A32" s="35">
         <v>3</v>
       </c>
-      <c r="B32" s="34"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="10" t="s">
         <v>44</v>
       </c>
@@ -2387,10 +2400,10 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A33" s="34">
+      <c r="A33" s="35">
         <v>4</v>
       </c>
-      <c r="B33" s="34"/>
+      <c r="B33" s="35"/>
       <c r="C33" s="10" t="s">
         <v>52</v>
       </c>
@@ -2414,10 +2427,10 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="34">
+      <c r="A34" s="35">
         <v>5</v>
       </c>
-      <c r="B34" s="34"/>
+      <c r="B34" s="35"/>
       <c r="C34" s="10" t="s">
         <v>56</v>
       </c>
@@ -2441,10 +2454,10 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="34">
+      <c r="A35" s="35">
         <v>6</v>
       </c>
-      <c r="B35" s="34"/>
+      <c r="B35" s="35"/>
       <c r="C35" s="10" t="s">
         <v>60</v>
       </c>
@@ -2468,10 +2481,10 @@
       </c>
     </row>
     <row r="36" spans="1:9" s="11" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A36" s="34">
+      <c r="A36" s="35">
         <v>7</v>
       </c>
-      <c r="B36" s="34"/>
+      <c r="B36" s="35"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14" t="s">
@@ -2489,10 +2502,10 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A37" s="34">
+      <c r="A37" s="35">
         <v>8</v>
       </c>
-      <c r="B37" s="34"/>
+      <c r="B37" s="35"/>
       <c r="C37" s="10" t="s">
         <v>67</v>
       </c>
@@ -2516,10 +2529,10 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A38" s="34">
+      <c r="A38" s="35">
         <v>9</v>
       </c>
-      <c r="B38" s="34"/>
+      <c r="B38" s="35"/>
       <c r="C38" s="10" t="s">
         <v>70</v>
       </c>
@@ -2543,10 +2556,10 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A39" s="34">
+      <c r="A39" s="35">
         <v>10</v>
       </c>
-      <c r="B39" s="34"/>
+      <c r="B39" s="35"/>
       <c r="C39" s="10" t="s">
         <v>69</v>
       </c>
@@ -2570,10 +2583,10 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A40" s="35" t="s">
+      <c r="A40" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="34"/>
+      <c r="B40" s="35"/>
       <c r="C40" s="10" t="s">
         <v>79</v>
       </c>
@@ -2597,10 +2610,10 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A41" s="34">
+      <c r="A41" s="35">
         <v>13</v>
       </c>
-      <c r="B41" s="34"/>
+      <c r="B41" s="35"/>
       <c r="C41" s="10" t="s">
         <v>83</v>
       </c>
@@ -2624,10 +2637,10 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A42" s="34">
+      <c r="A42" s="35">
         <v>14</v>
       </c>
-      <c r="B42" s="34"/>
+      <c r="B42" s="35"/>
       <c r="C42" s="10" t="s">
         <v>87</v>
       </c>
@@ -2651,10 +2664,10 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A43" s="34">
+      <c r="A43" s="35">
         <v>15</v>
       </c>
-      <c r="B43" s="34"/>
+      <c r="B43" s="35"/>
       <c r="C43" s="10" t="s">
         <v>83</v>
       </c>
@@ -2678,10 +2691,10 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="34">
+      <c r="A44" s="35">
         <v>16</v>
       </c>
-      <c r="B44" s="34"/>
+      <c r="B44" s="35"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10" t="s">
@@ -2868,11 +2881,18 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B24:I24"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
@@ -2885,18 +2905,11 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
